--- a/data/xlsx/01202019.xlsx
+++ b/data/xlsx/01202019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1B1EF8-DEE2-4446-B84F-FAB47652E08B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA00F8-F819-0540-801D-A4B72C9A9D22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -664,11 +664,9 @@
     <col min="4" max="4" width="19"/>
     <col min="5" max="5" width="14"/>
     <col min="8" max="8" width="15"/>
-    <col min="9" max="10" width="21"/>
-    <col min="11" max="11" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -693,9 +691,8 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>43485</v>
       </c>
@@ -720,9 +717,8 @@
       <c r="H2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>43485</v>
       </c>
@@ -747,9 +743,8 @@
       <c r="H3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>43485</v>
       </c>
@@ -774,9 +769,8 @@
       <c r="H4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>43485</v>
       </c>
@@ -801,9 +795,8 @@
       <c r="H5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>43485</v>
       </c>
@@ -828,9 +821,8 @@
       <c r="H6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>43485</v>
       </c>
@@ -855,10 +847,8 @@
       <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>43485</v>
       </c>
@@ -883,9 +873,8 @@
       <c r="H8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>43485</v>
       </c>
@@ -910,9 +899,8 @@
       <c r="H9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>43485</v>
       </c>
@@ -937,10 +925,8 @@
       <c r="H10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>43485</v>
       </c>
@@ -965,9 +951,8 @@
       <c r="H11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>43485</v>
       </c>
@@ -992,9 +977,8 @@
       <c r="H12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>43485</v>
       </c>
@@ -1019,9 +1003,8 @@
       <c r="H13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>43485</v>
       </c>
@@ -1046,9 +1029,8 @@
       <c r="H14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>43485</v>
       </c>
@@ -1073,9 +1055,8 @@
       <c r="H15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>43485</v>
       </c>
@@ -1100,9 +1081,8 @@
       <c r="H16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>43485</v>
       </c>
@@ -1127,10 +1107,8 @@
       <c r="H17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>43485</v>
       </c>
@@ -1155,9 +1133,8 @@
       <c r="H18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>43485</v>
       </c>
@@ -1182,8 +1159,6 @@
       <c r="H19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="K19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/01202019.xlsx
+++ b/data/xlsx/01202019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA00F8-F819-0540-801D-A4B72C9A9D22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02908A39-AA70-8748-98DB-BA7F9006C9A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,6 +263,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -310,8 +313,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -693,7 +696,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43485</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -719,7 +722,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>43485</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -745,7 +748,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>43485</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -771,7 +774,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>43485</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -797,7 +800,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>43485</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -823,7 +826,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>43485</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -849,7 +852,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>43485</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -875,7 +878,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>43485</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -901,7 +904,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>43485</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -927,7 +930,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>43485</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -953,7 +956,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>43485</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -971,7 +974,7 @@
       <c r="F12">
         <v>37.869447999999998</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>-122.26788000000001</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -979,7 +982,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>43485</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1005,7 +1008,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>43485</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1031,7 +1034,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>43485</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1057,7 +1060,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>43485</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1083,7 +1086,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>43485</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1109,7 +1112,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>43485</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1135,7 +1138,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>43485</v>
       </c>
       <c r="B19" s="2" t="s">
